--- a/Experiments/Part3-Producer/DocPop/Setting 5 Results/DocPop_prod-Mix_Sone-400-payoff.xlsx
+++ b/Experiments/Part3-Producer/DocPop/Setting 5 Results/DocPop_prod-Mix_Sone-400-payoff.xlsx
@@ -643,8 +643,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2066876040"/>
-        <c:axId val="-2069823480"/>
+        <c:axId val="2138980232"/>
+        <c:axId val="2091065368"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -927,11 +927,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2066909160"/>
-        <c:axId val="-2066911800"/>
+        <c:axId val="2138896472"/>
+        <c:axId val="2091349928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2066876040"/>
+        <c:axId val="2138980232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -940,7 +940,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2069823480"/>
+        <c:crossAx val="2091065368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -948,7 +948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2069823480"/>
+        <c:axId val="2091065368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -959,12 +959,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066876040"/>
+        <c:crossAx val="2138980232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2066911800"/>
+        <c:axId val="2091349928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -974,12 +974,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066909160"/>
+        <c:crossAx val="2138896472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2066909160"/>
+        <c:axId val="2138896472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -988,7 +988,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066911800"/>
+        <c:crossAx val="2091349928"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1369,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C81" sqref="A1:C81"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2271,6 +2272,12 @@
     <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="C84">
+        <f>SUM(C2:C81)</f>
+        <v>188281</v>
       </c>
     </row>
   </sheetData>
